--- a/data11.xlsx
+++ b/data11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77421b00644dbb18/Desktop/VIT/Sem 4/Foundataion of Data Science/R and Python Codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9CF8C1-B53C-4160-B519-48E4D6B7BDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{0F9CF8C1-B53C-4160-B519-48E4D6B7BDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B896441-B950-4774-AA04-7A3403748ABE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9070B5B2-07E0-434C-AE08-2593C620A093}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Values</t>
   </si>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647FD25D-A9D8-4F0A-A251-5DAD71C3130D}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +424,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -448,15 +448,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -472,10 +472,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,38 +483,14 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
